--- a/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,25; 8,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,82; 5,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,39; 5,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,36; 6,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,6; 11,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>10,79; 14,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>7,44; 11,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,33; 16,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>7,51; 9,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>7,79; 10,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,76; 8,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>8,67; 11,85</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,73; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,86; 1,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,49; 1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,24; 2,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,14; 2,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,24; 2,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,3; 2,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,71; 4,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,07; 1,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,17; 2,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,99; 1,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,21; 3,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,44; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,44; 3,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1019,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,19; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,65; 2,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,2; 1,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,12; 4,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,03; 2,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,76; 2,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,1; 0,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,19; 2,44</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,4; 3,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,61; 2,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,96; 1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,53; 2,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,35; 5,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,03; 6,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,22; 4,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,78; 6,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,54; 4,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,52; 4,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,21; 3,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,42; 4,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,64</t>
+          <t>3,24; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,28</t>
+          <t>11,01; 15,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,85</t>
+          <t>8,28; 11,09</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,4</t>
+          <t>0,98; 2,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,21</t>
+          <t>2,13; 3,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,1</t>
+          <t>1,81; 2,78</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,42</t>
+          <t>2,05; 4,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,44</t>
+          <t>1,13; 2,31</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,45</t>
+          <t>1,32; 2,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,26</t>
+          <t>4,07; 5,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,33</t>
+          <t>2,92; 3,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,31</t>
+          <t>5,28; 8,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,43</t>
+          <t>2,73; 5,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,0</t>
+          <t>2,4; 4,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,36</t>
+          <t>3,33; 6,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,99</t>
+          <t>8,74; 11,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 14,4</t>
+          <t>10,65; 14,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,25</t>
+          <t>7,57; 11,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 15,38</t>
+          <t>11,14; 15,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 9,7</t>
+          <t>7,43; 9,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 10,12</t>
+          <t>7,75; 10,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,17</t>
+          <t>5,7; 8,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,09</t>
+          <t>8,42; 11,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,81</t>
+          <t>0,78; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,95</t>
+          <t>0,84; 1,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,39</t>
+          <t>0,51; 1,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,16</t>
+          <t>0,97; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,56</t>
+          <t>1,09; 2,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,61</t>
+          <t>1,13; 2,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,64</t>
+          <t>1,31; 2,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,84</t>
+          <t>2,16; 3,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,95</t>
+          <t>1,07; 1,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,0</t>
+          <t>1,14; 2,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,76</t>
+          <t>1,02; 1,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,78</t>
+          <t>1,85; 2,81</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,54</t>
+          <t>0,41; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,57</t>
+          <t>0,44; 3,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,21</t>
+          <t>1,23; 4,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,82</t>
+          <t>0,56; 2,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,77</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,15</t>
+          <t>2,05; 4,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,77</t>
+          <t>0,98; 2,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,66</t>
+          <t>0,76; 2,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,98</t>
+          <t>0,1; 0,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,31</t>
+          <t>1,09; 2,22</t>
         </is>
       </c>
     </row>
@@ -1144,52 +1145,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,52</t>
+          <t>2,35; 3,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,69</t>
+          <t>1,61; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,72</t>
+          <t>0,97; 1,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,25</t>
+          <t>1,34; 2,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 5,95</t>
+          <t>4,38; 5,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 6,69</t>
+          <t>5,06; 6,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,49</t>
+          <t>3,2; 4,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,74</t>
+          <t>4,14; 5,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,5</t>
+          <t>3,54; 4,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 4,45</t>
+          <t>3,52; 4,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,95</t>
+          <t>2,99; 3,96</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>68451</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38603</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26671</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23770</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>133410</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>166988</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>93061</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96846</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>201862</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>205591</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>119733</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>120616</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54498; 85409</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26514; 52456</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18123; 37305</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17072; 32701</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>114943; 157034</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>141765; 190380</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>75263; 113183</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>83709; 117043</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>174459; 229209</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>178478; 232801</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>99711; 139860</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>106480; 141280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20410</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25611</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17578</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35452</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26801</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31895</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37291</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68226</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47211</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57506</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54870</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>103677</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13126; 31381</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16497; 38133</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10573; 29397</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22190; 49184</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17309; 38253</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19854; 43979</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26004; 52488</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48270; 85413</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35182; 64273</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>42486; 74284</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41389; 70953</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83936; 127093</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6431</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11321</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6526</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19415</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17752</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13641</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20803</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2240; 14557</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2097; 16448</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5703</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5871; 20781</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2542; 13695</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1079; 9976</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13536; 27754</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10083; 28481</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7088; 23658</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1073; 9657</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14286; 29054</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>95292</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>71329</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44250</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60609</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>171532</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>205410</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>134558</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>184487</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>266824</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>276739</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>178807</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>245096</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>77076; 115878</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54949; 92008</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32870; 61020</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46382; 78129</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>147850; 199364</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>179173; 235364</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>112952; 160305</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>150931; 211240</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>235279; 298426</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>244940; 310583</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>152363; 208598</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>212294; 281018</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>